--- a/DB定義書_3SFY.xlsx
+++ b/DB定義書_3SFY.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Web開発研修\6月配布物\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351E2EBD-60ED-40C1-BA3B-4612F4C0762F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAACF9D2-0CEF-4AED-A583-E03E5BD5F628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="user" sheetId="2" r:id="rId2"/>
     <sheet name="record" sheetId="4" r:id="rId3"/>
-    <sheet name="note" sheetId="5" r:id="rId4"/>
+    <sheet name="record_note" sheetId="5" r:id="rId4"/>
     <sheet name="recipe" sheetId="6" r:id="rId5"/>
     <sheet name="goal" sheetId="7" r:id="rId6"/>
     <sheet name="alret" sheetId="8" r:id="rId7"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="98">
   <si>
     <t>落合大輔</t>
   </si>
@@ -664,6 +664,10 @@
     <rPh sb="19" eb="21">
       <t>ジユウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1364,7 +1368,7 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2468,8 +2472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CE4026-F6A8-4066-A501-7B609238157E}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3079,8 +3083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7AA00D-49A2-4927-8094-9EEE525D99A8}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3197,7 +3201,9 @@
     <row r="6" spans="1:12" ht="15">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -3379,9 +3385,7 @@
       </c>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="32" t="s">
-        <v>49</v>
-      </c>
+      <c r="H13" s="32"/>
       <c r="I13" s="18" t="s">
         <v>34</v>
       </c>

--- a/DB定義書_3SFY.xlsx
+++ b/DB定義書_3SFY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAACF9D2-0CEF-4AED-A583-E03E5BD5F628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D7986-B22C-4CCA-A7BE-6C7C6338C2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="99">
   <si>
     <t>落合大輔</t>
   </si>
@@ -191,10 +191,6 @@
     <rPh sb="0" eb="2">
       <t>キロク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>晩</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -668,6 +664,17 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落合大輔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夕</t>
+    <rPh sb="0" eb="1">
+      <t>ユウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1368,7 +1375,7 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1399,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>5</v>
@@ -1417,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>7</v>
@@ -1504,13 +1511,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1524,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>2</v>
@@ -1542,7 +1549,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>2</v>
@@ -1557,10 +1564,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>2</v>
@@ -1574,10 +1581,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>2</v>
@@ -1591,10 +1598,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>2</v>
@@ -1876,7 +1883,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -1898,7 +1905,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -1940,7 +1947,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -2036,20 +2043,20 @@
         <v>26</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="11">
         <v>0</v>
@@ -2066,10 +2073,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>28</v>
@@ -2080,13 +2087,13 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="16" t="str">
@@ -2099,10 +2106,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>28</v>
@@ -2113,13 +2120,13 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="16" t="str">
@@ -2132,10 +2139,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>28</v>
@@ -2146,10 +2153,10 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="8"/>
@@ -2472,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CE4026-F6A8-4066-A501-7B609238157E}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2511,7 +2518,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -2533,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -2555,12 +2562,14 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -2575,12 +2584,14 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12">
+        <v>44721</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="16"/>
@@ -2673,20 +2684,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -2706,7 +2717,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -2715,7 +2726,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
@@ -2735,7 +2746,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>31</v>
@@ -2744,7 +2755,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="11"/>
@@ -2762,7 +2773,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>28</v>
@@ -2773,13 +2784,13 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="16" t="str">
@@ -2795,7 +2806,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>28</v>
@@ -2806,13 +2817,13 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="16" t="str">
@@ -2828,7 +2839,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>27</v>
@@ -2837,7 +2848,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I15" s="14">
         <v>0</v>
@@ -3083,7 +3094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7AA00D-49A2-4927-8094-9EEE525D99A8}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -3102,7 +3113,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3122,7 +3133,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -3144,7 +3155,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -3166,7 +3177,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
@@ -3186,7 +3197,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -3202,7 +3213,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -3284,20 +3295,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
@@ -3317,7 +3328,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -3326,7 +3337,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="14">
         <v>0</v>
@@ -3346,7 +3357,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>31</v>
@@ -3355,7 +3366,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="14">
         <v>0</v>
@@ -3375,7 +3386,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>28</v>
@@ -3707,7 +3718,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -3729,7 +3740,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -3751,7 +3762,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
@@ -3771,7 +3782,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -3869,20 +3880,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -3902,7 +3913,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -3911,13 +3922,13 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="16" t="str">
@@ -3933,7 +3944,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>28</v>
@@ -3944,7 +3955,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>34</v>
@@ -3964,7 +3975,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -3973,13 +3984,13 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="18">
         <v>0</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="16" t="str">
@@ -3995,7 +4006,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
@@ -4008,7 +4019,7 @@
         <v>34</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="16" t="str">
@@ -4024,7 +4035,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>28</v>
@@ -4039,7 +4050,7 @@
         <v>34</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="16" t="str">
@@ -4055,7 +4066,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>28</v>
@@ -4330,7 +4341,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -4352,7 +4363,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -4374,7 +4385,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
@@ -4394,7 +4405,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -4492,20 +4503,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -4525,7 +4536,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -4534,7 +4545,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
@@ -4554,7 +4565,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>31</v>
@@ -4563,7 +4574,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -4581,7 +4592,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -4590,7 +4601,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="18">
         <v>0</v>
@@ -4610,7 +4621,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
@@ -4883,7 +4894,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4901,7 +4912,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4921,7 +4932,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -4943,7 +4954,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -4965,12 +4976,14 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -4985,12 +4998,14 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="12">
+        <v>44721</v>
+      </c>
       <c r="F5" s="8"/>
       <c r="G5" s="7"/>
       <c r="H5" s="16"/>
@@ -5083,20 +5098,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -5116,7 +5131,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -5125,7 +5140,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
@@ -5142,13 +5157,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>89</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
@@ -5156,10 +5171,10 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="8"/>
@@ -5176,7 +5191,7 @@
         <v>41</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -5203,7 +5218,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
@@ -5227,10 +5242,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>27</v>

--- a/DB定義書_3SFY.xlsx
+++ b/DB定義書_3SFY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D7986-B22C-4CCA-A7BE-6C7C6338C2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F25A16-2142-43EE-A812-0EFD4F20874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="100">
   <si>
     <t>落合大輔</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>集計</t>
-  </si>
-  <si>
-    <t>朝</t>
   </si>
   <si>
     <t>昼</t>
@@ -527,16 +524,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>平日休日</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイジツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キュウジツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -674,6 +661,45 @@
     <t>夕</t>
     <rPh sb="0" eb="1">
       <t>ユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格納するデータは「月、火、水、木、金、土、日」</t>
+    <rPh sb="0" eb="2">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1375,7 +1401,7 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1406,7 +1432,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>5</v>
@@ -1424,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>7</v>
@@ -1511,13 +1537,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1531,7 +1557,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>2</v>
@@ -1546,10 +1572,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>2</v>
@@ -1564,10 +1590,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>2</v>
@@ -1581,10 +1607,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>2</v>
@@ -1598,10 +1624,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>2</v>
@@ -1845,7 +1871,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1883,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -1905,7 +1931,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -1947,7 +1973,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -2043,20 +2069,20 @@
         <v>26</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="11">
         <v>0</v>
@@ -2073,10 +2099,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>28</v>
@@ -2087,13 +2113,13 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="16" t="str">
@@ -2106,10 +2132,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>28</v>
@@ -2120,13 +2146,13 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="16" t="str">
@@ -2139,10 +2165,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>28</v>
@@ -2153,10 +2179,10 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="8"/>
@@ -2518,7 +2544,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -2540,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -2562,13 +2588,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2584,7 +2610,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -2684,20 +2710,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -2717,7 +2743,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -2726,7 +2752,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
@@ -2746,7 +2772,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>31</v>
@@ -2755,7 +2781,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="11"/>
@@ -2773,7 +2799,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>28</v>
@@ -2784,13 +2810,13 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="16" t="str">
@@ -2806,7 +2832,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>28</v>
@@ -2817,13 +2843,13 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="16" t="str">
@@ -2839,7 +2865,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>27</v>
@@ -2848,7 +2874,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" s="14">
         <v>0</v>
@@ -3113,7 +3139,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3133,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -3155,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -3177,7 +3203,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
@@ -3197,7 +3223,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -3213,7 +3239,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -3295,20 +3321,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
@@ -3328,7 +3354,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -3337,7 +3363,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="14">
         <v>0</v>
@@ -3357,7 +3383,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>31</v>
@@ -3366,7 +3392,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="14">
         <v>0</v>
@@ -3386,7 +3412,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>28</v>
@@ -3718,7 +3744,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -3740,7 +3766,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -3762,7 +3788,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
@@ -3782,7 +3808,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -3880,20 +3906,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -3913,7 +3939,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -3922,13 +3948,13 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="16" t="str">
@@ -3944,7 +3970,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>28</v>
@@ -3955,7 +3981,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>34</v>
@@ -3975,7 +4001,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -3984,13 +4010,13 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="18">
         <v>0</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="16" t="str">
@@ -4006,7 +4032,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
@@ -4019,7 +4045,7 @@
         <v>34</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="16" t="str">
@@ -4035,7 +4061,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>28</v>
@@ -4050,7 +4076,7 @@
         <v>34</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="16" t="str">
@@ -4066,7 +4092,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>28</v>
@@ -4303,7 +4329,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4341,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -4363,7 +4389,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -4385,7 +4411,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
@@ -4405,7 +4431,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -4503,20 +4529,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -4536,7 +4562,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -4545,7 +4571,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
@@ -4565,7 +4591,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>31</v>
@@ -4574,7 +4600,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -4592,7 +4618,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -4601,7 +4627,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="18">
         <v>0</v>
@@ -4621,7 +4647,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
@@ -4893,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B6FAE5-0C01-4423-B773-2B2322EE151D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4907,12 +4933,12 @@
     <col min="7" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="10" max="10" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4932,7 +4958,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -4954,7 +4980,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -4976,13 +5002,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -4998,7 +5024,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -5098,20 +5124,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -5131,7 +5157,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -5140,7 +5166,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
@@ -5157,26 +5183,28 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>89</v>
-      </c>
       <c r="D12" s="39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="J12" s="43" t="s">
+        <v>99</v>
+      </c>
       <c r="K12" s="8"/>
       <c r="L12" s="16" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -5187,11 +5215,11 @@
       <c r="A13" s="13">
         <v>4</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>41</v>
+      <c r="B13" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -5215,10 +5243,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
@@ -5242,10 +5270,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>27</v>

--- a/DB定義書_3SFY.xlsx
+++ b/DB定義書_3SFY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F25A16-2142-43EE-A812-0EFD4F20874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEF368F-4931-49C3-8D4D-8FF185EEBC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="103">
   <si>
     <t>落合大輔</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>集計</t>
-  </si>
-  <si>
-    <t>昼</t>
   </si>
   <si>
     <r>
@@ -512,18 +509,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>morning</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lunch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dinner</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>varchar</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -658,17 +643,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>夕</t>
-    <rPh sb="0" eb="1">
-      <t>ユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>朝</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>曜日</t>
     <rPh sb="0" eb="2">
       <t>ヨウビ</t>
@@ -703,12 +677,75 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>morning_min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lunch_min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dinner_min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝下限値</t>
+    <rPh sb="1" eb="3">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夕下限値</t>
+    <rPh sb="0" eb="1">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>カゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼下限値</t>
+    <rPh sb="1" eb="4">
+      <t>カゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝上限値</t>
+    <rPh sb="1" eb="4">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼上限値</t>
+    <rPh sb="1" eb="4">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夕上限値</t>
+    <rPh sb="0" eb="1">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,6 +852,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -925,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,6 +1102,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1432,7 +1480,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>5</v>
@@ -1450,7 +1498,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>7</v>
@@ -1537,13 +1585,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1557,7 +1605,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>2</v>
@@ -1572,10 +1620,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>2</v>
@@ -1590,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>2</v>
@@ -1607,10 +1655,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>2</v>
@@ -1624,10 +1672,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>2</v>
@@ -1909,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -1931,7 +1979,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -1973,7 +2021,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -2069,20 +2117,20 @@
         <v>26</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="11">
         <v>0</v>
@@ -2099,10 +2147,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>28</v>
@@ -2113,13 +2161,13 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="16" t="str">
@@ -2132,10 +2180,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>28</v>
@@ -2146,13 +2194,13 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="16" t="str">
@@ -2165,10 +2213,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>28</v>
@@ -2179,10 +2227,10 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="8"/>
@@ -2544,7 +2592,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -2566,7 +2614,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -2588,13 +2636,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2610,7 +2658,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -2710,20 +2758,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -2743,7 +2791,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -2752,7 +2800,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
@@ -2772,7 +2820,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>31</v>
@@ -2781,7 +2829,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="11"/>
@@ -2799,7 +2847,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>28</v>
@@ -2810,13 +2858,13 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="16" t="str">
@@ -2832,7 +2880,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>28</v>
@@ -2843,13 +2891,13 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>34</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="16" t="str">
@@ -2865,7 +2913,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>27</v>
@@ -2874,7 +2922,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="14">
         <v>0</v>
@@ -3139,7 +3187,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -3159,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -3181,7 +3229,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -3203,7 +3251,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
@@ -3223,7 +3271,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -3239,7 +3287,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -3321,20 +3369,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="14">
         <v>0</v>
@@ -3354,7 +3402,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -3363,7 +3411,7 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="14">
         <v>0</v>
@@ -3383,7 +3431,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>31</v>
@@ -3392,7 +3440,7 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="14">
         <v>0</v>
@@ -3412,7 +3460,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>28</v>
@@ -3705,7 +3753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1568F5B-E487-4EBE-99EE-FDD059EDD9B9}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -3744,7 +3792,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -3766,7 +3814,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -3788,7 +3836,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
@@ -3808,7 +3856,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -3906,20 +3954,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -3939,7 +3987,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -3948,13 +3996,13 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="16" t="str">
@@ -3970,7 +4018,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>28</v>
@@ -3981,7 +4029,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>34</v>
@@ -4001,7 +4049,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -4010,13 +4058,13 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="18">
         <v>0</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="16" t="str">
@@ -4032,7 +4080,7 @@
         <v>37</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
@@ -4045,7 +4093,7 @@
         <v>34</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="16" t="str">
@@ -4061,7 +4109,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>28</v>
@@ -4076,7 +4124,7 @@
         <v>34</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="16" t="str">
@@ -4092,7 +4140,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>28</v>
@@ -4367,7 +4415,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -4389,7 +4437,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -4411,7 +4459,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
@@ -4431,7 +4479,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -4529,20 +4577,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -4562,7 +4610,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -4571,7 +4619,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
@@ -4591,7 +4639,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>31</v>
@@ -4600,7 +4648,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
@@ -4618,7 +4666,7 @@
         <v>39</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -4627,7 +4675,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="18">
         <v>0</v>
@@ -4647,7 +4695,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
@@ -4919,8 +4967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B6FAE5-0C01-4423-B773-2B2322EE151D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4938,7 +4986,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -4958,7 +5006,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>5</v>
@@ -4980,7 +5028,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
@@ -5002,13 +5050,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -5024,7 +5072,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>9</v>
@@ -5124,20 +5172,20 @@
         <v>29</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -5157,7 +5205,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>27</v>
@@ -5166,7 +5214,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
@@ -5183,13 +5231,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -5197,18 +5245,18 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="16" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>morning int ,</v>
+        <v>morning_min int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15">
@@ -5219,7 +5267,7 @@
         <v>97</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -5229,24 +5277,24 @@
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="8"/>
       <c r="L13" s="16" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>lunch int ,</v>
+        <v>lunch_min int ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15">
       <c r="A14" s="13">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>41</v>
+      <c r="B14" s="44" t="s">
+        <v>99</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
@@ -5256,7 +5304,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="14"/>
       <c r="I14" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="8"/>
@@ -5270,10 +5318,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>96</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>85</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>27</v>
@@ -5283,7 +5331,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="8"/>
@@ -5296,14 +5344,22 @@
       <c r="A16" s="13">
         <v>7</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14">
+        <v>0</v>
+      </c>
       <c r="J16" s="11"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -5312,14 +5368,22 @@
       <c r="A17" s="13">
         <v>8</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14">
+        <v>0</v>
+      </c>
       <c r="J17" s="11"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -5328,14 +5392,22 @@
       <c r="A18" s="13">
         <v>9</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
+        <v>0</v>
+      </c>
       <c r="J18" s="11"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>

--- a/DB定義書_3SFY.xlsx
+++ b/DB定義書_3SFY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEF368F-4931-49C3-8D4D-8FF185EEBC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51983637-05D6-4C7C-965F-39288772166F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="106">
   <si>
     <t>落合大輔</t>
   </si>
@@ -738,6 +738,18 @@
     <rPh sb="1" eb="4">
       <t>ジョウゲンチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>morning_max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lunch_max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dinner_max</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4967,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B6FAE5-0C01-4423-B773-2B2322EE151D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5348,7 +5360,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>27</v>
@@ -5372,7 +5384,7 @@
         <v>101</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>27</v>
@@ -5396,7 +5408,7 @@
         <v>102</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>27</v>

--- a/DB定義書_3SFY.xlsx
+++ b/DB定義書_3SFY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEF368F-4931-49C3-8D4D-8FF185EEBC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E43E10-7CDB-4163-8196-3DC6AB69AB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="106">
   <si>
     <t>落合大輔</t>
   </si>
@@ -738,6 +738,18 @@
     <rPh sb="1" eb="4">
       <t>ジョウゲンチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>morning_max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lunch_max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dinner_max</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4968,7 +4980,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5348,7 +5360,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>27</v>
@@ -5372,7 +5384,7 @@
         <v>101</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>27</v>
@@ -5396,7 +5408,7 @@
         <v>102</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>27</v>

--- a/DB定義書_3SFY.xlsx
+++ b/DB定義書_3SFY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E43E10-7CDB-4163-8196-3DC6AB69AB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B98B58-B28B-4271-BC87-694A20A82392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1461,7 +1461,7 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -2566,7 +2566,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3765,7 +3765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1568F5B-E487-4EBE-99EE-FDD059EDD9B9}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -4979,7 +4979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B6FAE5-0C01-4423-B773-2B2322EE151D}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>

--- a/DB定義書_3SFY.xlsx
+++ b/DB定義書_3SFY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B98B58-B28B-4271-BC87-694A20A82392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88A4544-A9A0-4008-B7A9-8D22B9991742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="109">
   <si>
     <t>落合大輔</t>
   </si>
@@ -517,6 +517,228 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>朝,昼,晩以外は備考に記入</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒル</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン時に入力する文字列</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション内で表示するユーザー名</t>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者側はクラシルを参照、ユーザー側は自由</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落合大輔</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>格納するデータは「月、火、水、木、金、土、日」</t>
+    <rPh sb="0" eb="2">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>morning_min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lunch_min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dinner_min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝下限値</t>
+    <rPh sb="1" eb="3">
+      <t>カゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夕下限値</t>
+    <rPh sb="0" eb="1">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>カゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼下限値</t>
+    <rPh sb="1" eb="4">
+      <t>カゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>朝上限値</t>
+    <rPh sb="1" eb="4">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昼上限値</t>
+    <rPh sb="1" eb="4">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夕上限値</t>
+    <rPh sb="0" eb="1">
+      <t>ユウ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>morning_max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lunch_max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dinner_max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レシピ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recipeid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>recipe</t>
     </r>
@@ -547,209 +769,33 @@
         <family val="2"/>
         <charset val="128"/>
       </rPr>
-      <t>とを参照してレシピ名を表示</t>
+      <t>を参照してレシピ</t>
     </r>
-    <rPh sb="15" eb="17">
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示</t>
+    </r>
+    <rPh sb="14" eb="16">
       <t>サンショウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>メイ</t>
     </rPh>
     <rPh sb="24" eb="26">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>朝,昼,晩以外は備考に記入</t>
-    <rPh sb="0" eb="1">
-      <t>アサ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒル</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン時に入力する文字列</t>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリケーション内で表示するユーザー名</t>
-    <rPh sb="8" eb="9">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者側はクラシルを参照、ユーザー側は自由</t>
-    <rPh sb="0" eb="2">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>落合大輔</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>曜日</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>格納するデータは「月、火、水、木、金、土、日」</t>
-    <rPh sb="0" eb="2">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>morning_min</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lunch_min</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dinner_min</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>朝下限値</t>
-    <rPh sb="1" eb="3">
-      <t>カゲン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>夕下限値</t>
-    <rPh sb="0" eb="1">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="1" eb="4">
-      <t>カゲンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>昼下限値</t>
-    <rPh sb="1" eb="4">
-      <t>カゲンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>朝上限値</t>
-    <rPh sb="1" eb="4">
-      <t>ジョウゲンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>昼上限値</t>
-    <rPh sb="1" eb="4">
-      <t>ジョウゲンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>夕上限値</t>
-    <rPh sb="0" eb="1">
-      <t>ユウ</t>
-    </rPh>
-    <rPh sb="1" eb="4">
-      <t>ジョウゲンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>morning_max</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lunch_max</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>dinner_max</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -757,7 +803,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -873,6 +919,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -982,7 +1035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1116,6 +1169,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1461,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2159,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>61</v>
@@ -2179,7 +2235,7 @@
         <v>54</v>
       </c>
       <c r="J11" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="16" t="str">
@@ -2212,7 +2268,7 @@
         <v>54</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="16" t="str">
@@ -2565,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CE4026-F6A8-4066-A501-7B609238157E}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2654,7 +2710,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -2676,7 +2732,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="12">
-        <v>44721</v>
+        <v>44725</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -2876,7 +2932,7 @@
         <v>58</v>
       </c>
       <c r="J13" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="16" t="str">
@@ -2888,33 +2944,31 @@
       <c r="A14" s="13">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>33</v>
+      <c r="B14" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="11">
-        <v>30</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>34</v>
+      <c r="I14" s="18">
+        <v>0</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="16" t="str">
         <f t="shared" si="0"/>
-        <v>recipe varchar (30),</v>
+        <v>recipeid int ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15">
@@ -3299,7 +3353,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -4076,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="16" t="str">
@@ -4105,7 +4159,7 @@
         <v>34</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="16" t="str">
@@ -4136,7 +4190,7 @@
         <v>34</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="16" t="str">
@@ -4389,7 +4443,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4980,7 +5034,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5068,7 +5122,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -5243,7 +5297,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>83</v>
@@ -5263,7 +5317,7 @@
         <v>54</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="16" t="str">
@@ -5276,10 +5330,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>27</v>
@@ -5303,10 +5357,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>27</v>
@@ -5330,10 +5384,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>27</v>
@@ -5357,10 +5411,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>27</v>
@@ -5381,10 +5435,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>27</v>
@@ -5405,10 +5459,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>27</v>
